--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02354213763968</v>
+        <v>1.0264945</v>
       </c>
       <c r="H2">
-        <v>1.02354213763968</v>
+        <v>2.052989</v>
       </c>
       <c r="I2">
-        <v>0.435406645047741</v>
+        <v>0.391648662750159</v>
       </c>
       <c r="J2">
-        <v>0.435406645047741</v>
+        <v>0.3176264927596862</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>1.872361444365817</v>
+        <v>2.072539614247</v>
       </c>
       <c r="R2">
-        <v>1.872361444365817</v>
+        <v>8.290158456988001</v>
       </c>
       <c r="S2">
-        <v>0.00161818295618802</v>
+        <v>0.00155694181471018</v>
       </c>
       <c r="T2">
-        <v>0.00161818295618802</v>
+        <v>0.0008598331911614906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02354213763968</v>
+        <v>1.0264945</v>
       </c>
       <c r="H3">
-        <v>1.02354213763968</v>
+        <v>2.052989</v>
       </c>
       <c r="I3">
-        <v>0.435406645047741</v>
+        <v>0.391648662750159</v>
       </c>
       <c r="J3">
-        <v>0.435406645047741</v>
+        <v>0.3176264927596862</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>134.6076343185993</v>
+        <v>143.3959609868417</v>
       </c>
       <c r="R3">
-        <v>134.6076343185993</v>
+        <v>860.3757659210499</v>
       </c>
       <c r="S3">
-        <v>0.1163342581543727</v>
+        <v>0.1077225092279254</v>
       </c>
       <c r="T3">
-        <v>0.1163342581543727</v>
+        <v>0.08923588665381028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02354213763968</v>
+        <v>1.0264945</v>
       </c>
       <c r="H4">
-        <v>1.02354213763968</v>
+        <v>2.052989</v>
       </c>
       <c r="I4">
-        <v>0.435406645047741</v>
+        <v>0.391648662750159</v>
       </c>
       <c r="J4">
-        <v>0.435406645047741</v>
+        <v>0.3176264927596862</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>188.5636459173948</v>
+        <v>191.2922323371382</v>
       </c>
       <c r="R4">
-        <v>188.5636459173948</v>
+        <v>1147.753394022829</v>
       </c>
       <c r="S4">
-        <v>0.1629655849293303</v>
+        <v>0.1437033450688247</v>
       </c>
       <c r="T4">
-        <v>0.1629655849293303</v>
+        <v>0.119041930087261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02354213763968</v>
+        <v>1.0264945</v>
       </c>
       <c r="H5">
-        <v>1.02354213763968</v>
+        <v>2.052989</v>
       </c>
       <c r="I5">
-        <v>0.435406645047741</v>
+        <v>0.391648662750159</v>
       </c>
       <c r="J5">
-        <v>0.435406645047741</v>
+        <v>0.3176264927596862</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>143.0136978666685</v>
+        <v>147.4099472870703</v>
       </c>
       <c r="R5">
-        <v>143.0136978666685</v>
+        <v>884.4596837224221</v>
       </c>
       <c r="S5">
-        <v>0.12359917423297</v>
+        <v>0.1107379126834442</v>
       </c>
       <c r="T5">
-        <v>0.12359917423297</v>
+        <v>0.09173380656767748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02354213763968</v>
+        <v>1.0264945</v>
       </c>
       <c r="H6">
-        <v>1.02354213763968</v>
+        <v>2.052989</v>
       </c>
       <c r="I6">
-        <v>0.435406645047741</v>
+        <v>0.391648662750159</v>
       </c>
       <c r="J6">
-        <v>0.435406645047741</v>
+        <v>0.3176264927596862</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>5.075476893478878</v>
+        <v>6.419404394232336</v>
       </c>
       <c r="R6">
-        <v>5.075476893478878</v>
+        <v>38.51642636539401</v>
       </c>
       <c r="S6">
-        <v>0.004386466207295494</v>
+        <v>0.004822411623985231</v>
       </c>
       <c r="T6">
-        <v>0.004386466207295494</v>
+        <v>0.003994821325276056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02354213763968</v>
+        <v>1.0264945</v>
       </c>
       <c r="H7">
-        <v>1.02354213763968</v>
+        <v>2.052989</v>
       </c>
       <c r="I7">
-        <v>0.435406645047741</v>
+        <v>0.391648662750159</v>
       </c>
       <c r="J7">
-        <v>0.435406645047741</v>
+        <v>0.3176264927596862</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>30.66597323932835</v>
+        <v>30.75718780096525</v>
       </c>
       <c r="R7">
-        <v>30.66597323932835</v>
+        <v>123.028751203861</v>
       </c>
       <c r="S7">
-        <v>0.02650297856758464</v>
+        <v>0.02310554233126933</v>
       </c>
       <c r="T7">
-        <v>0.02650297856758464</v>
+        <v>0.01276021493449989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.198373272949731</v>
+        <v>0.1992726666666667</v>
       </c>
       <c r="H8">
-        <v>0.198373272949731</v>
+        <v>0.597818</v>
       </c>
       <c r="I8">
-        <v>0.08438640488349712</v>
+        <v>0.07603048377040324</v>
       </c>
       <c r="J8">
-        <v>0.08438640488349712</v>
+        <v>0.09249091673097617</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>0.3628834165247498</v>
+        <v>0.4023406805426666</v>
       </c>
       <c r="R8">
-        <v>0.3628834165247498</v>
+        <v>2.414044083256</v>
       </c>
       <c r="S8">
-        <v>0.0003136209418702922</v>
+        <v>0.0003022480366549815</v>
       </c>
       <c r="T8">
-        <v>0.0003136209418702922</v>
+        <v>0.0002503782332364079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.198373272949731</v>
+        <v>0.1992726666666667</v>
       </c>
       <c r="H9">
-        <v>0.198373272949731</v>
+        <v>0.597818</v>
       </c>
       <c r="I9">
-        <v>0.08438640488349712</v>
+        <v>0.07603048377040324</v>
       </c>
       <c r="J9">
-        <v>0.08438640488349712</v>
+        <v>0.09249091673097617</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>26.08838073377028</v>
+        <v>27.83735863667777</v>
       </c>
       <c r="R9">
-        <v>26.08838073377028</v>
+        <v>250.5362277300999</v>
       </c>
       <c r="S9">
-        <v>0.02254680750074396</v>
+        <v>0.0209120961426226</v>
       </c>
       <c r="T9">
-        <v>0.02254680750074396</v>
+        <v>0.02598495135025446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.198373272949731</v>
+        <v>0.1992726666666667</v>
       </c>
       <c r="H10">
-        <v>0.198373272949731</v>
+        <v>0.597818</v>
       </c>
       <c r="I10">
-        <v>0.08438640488349712</v>
+        <v>0.07603048377040324</v>
       </c>
       <c r="J10">
-        <v>0.08438640488349712</v>
+        <v>0.09249091673097617</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>36.54562545536929</v>
+        <v>37.13542863643311</v>
       </c>
       <c r="R10">
-        <v>36.54562545536929</v>
+        <v>334.218857727898</v>
       </c>
       <c r="S10">
-        <v>0.03158445096862159</v>
+        <v>0.02789703089571827</v>
       </c>
       <c r="T10">
-        <v>0.03158445096862159</v>
+        <v>0.03466429121680933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.198373272949731</v>
+        <v>0.1992726666666667</v>
       </c>
       <c r="H11">
-        <v>0.198373272949731</v>
+        <v>0.597818</v>
       </c>
       <c r="I11">
-        <v>0.08438640488349712</v>
+        <v>0.07603048377040324</v>
       </c>
       <c r="J11">
-        <v>0.08438640488349712</v>
+        <v>0.09249091673097617</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>27.71756460156815</v>
+        <v>28.61659101835155</v>
       </c>
       <c r="R11">
-        <v>27.71756460156815</v>
+        <v>257.549319165164</v>
       </c>
       <c r="S11">
-        <v>0.02395482494059245</v>
+        <v>0.02149747432794858</v>
       </c>
       <c r="T11">
-        <v>0.02395482494059245</v>
+        <v>0.02671233054569499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.198373272949731</v>
+        <v>0.1992726666666667</v>
       </c>
       <c r="H12">
-        <v>0.198373272949731</v>
+        <v>0.597818</v>
       </c>
       <c r="I12">
-        <v>0.08438640488349712</v>
+        <v>0.07603048377040324</v>
       </c>
       <c r="J12">
-        <v>0.08438640488349712</v>
+        <v>0.09249091673097617</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>0.983681009422768</v>
+        <v>1.246194531047556</v>
       </c>
       <c r="R12">
-        <v>0.983681009422768</v>
+        <v>11.215750779428</v>
       </c>
       <c r="S12">
-        <v>0.0008501434637866607</v>
+        <v>0.000936171430120539</v>
       </c>
       <c r="T12">
-        <v>0.0008501434637866607</v>
+        <v>0.001163267847530542</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.198373272949731</v>
+        <v>0.1992726666666667</v>
       </c>
       <c r="H13">
-        <v>0.198373272949731</v>
+        <v>0.597818</v>
       </c>
       <c r="I13">
-        <v>0.08438640488349712</v>
+        <v>0.07603048377040324</v>
       </c>
       <c r="J13">
-        <v>0.08438640488349712</v>
+        <v>0.09249091673097617</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>5.943389388640833</v>
+        <v>5.970871575313666</v>
       </c>
       <c r="R13">
-        <v>5.943389388640833</v>
+        <v>35.825229451882</v>
       </c>
       <c r="S13">
-        <v>0.005136557067882185</v>
+        <v>0.00448546293733828</v>
       </c>
       <c r="T13">
-        <v>0.005136557067882185</v>
+        <v>0.003715697537450447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.29882873008398</v>
+        <v>0.2207873333333333</v>
       </c>
       <c r="H14">
-        <v>0.29882873008398</v>
+        <v>0.662362</v>
       </c>
       <c r="I14">
-        <v>0.12711935349314</v>
+        <v>0.08423918866800904</v>
       </c>
       <c r="J14">
-        <v>0.12711935349314</v>
+        <v>0.1024767882328114</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>0.5466461732277125</v>
+        <v>0.4457797822173333</v>
       </c>
       <c r="R14">
-        <v>0.5466461732277125</v>
+        <v>2.674678693304</v>
       </c>
       <c r="S14">
-        <v>0.0004724373721987744</v>
+        <v>0.0003348805389848865</v>
       </c>
       <c r="T14">
-        <v>0.0004724373721987744</v>
+        <v>0.0002774105619485088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.29882873008398</v>
+        <v>0.2207873333333333</v>
       </c>
       <c r="H15">
-        <v>0.29882873008398</v>
+        <v>0.662362</v>
       </c>
       <c r="I15">
-        <v>0.12711935349314</v>
+        <v>0.08423918866800904</v>
       </c>
       <c r="J15">
-        <v>0.12711935349314</v>
+        <v>0.1024767882328114</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>39.29943569865627</v>
+        <v>30.84284605232222</v>
       </c>
       <c r="R15">
-        <v>39.29943569865627</v>
+        <v>277.5856144708999</v>
       </c>
       <c r="S15">
-        <v>0.03396442349672089</v>
+        <v>0.02316989087852789</v>
       </c>
       <c r="T15">
-        <v>0.03396442349672089</v>
+        <v>0.02879044181717052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.29882873008398</v>
+        <v>0.2207873333333333</v>
       </c>
       <c r="H16">
-        <v>0.29882873008398</v>
+        <v>0.662362</v>
       </c>
       <c r="I16">
-        <v>0.12711935349314</v>
+        <v>0.08423918866800904</v>
       </c>
       <c r="J16">
-        <v>0.12711935349314</v>
+        <v>0.1024767882328114</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>55.05218864700688</v>
+        <v>41.14479119478689</v>
       </c>
       <c r="R16">
-        <v>55.05218864700688</v>
+        <v>370.303120753082</v>
       </c>
       <c r="S16">
-        <v>0.04757869461449403</v>
+        <v>0.03090896088466681</v>
       </c>
       <c r="T16">
-        <v>0.04757869461449403</v>
+        <v>0.03840685502769783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.29882873008398</v>
+        <v>0.2207873333333333</v>
       </c>
       <c r="H17">
-        <v>0.29882873008398</v>
+        <v>0.662362</v>
       </c>
       <c r="I17">
-        <v>0.12711935349314</v>
+        <v>0.08423918866800904</v>
       </c>
       <c r="J17">
-        <v>0.12711935349314</v>
+        <v>0.1024767882328114</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>41.75363196737798</v>
+        <v>31.70620901360844</v>
       </c>
       <c r="R17">
-        <v>41.75363196737798</v>
+        <v>285.355881122476</v>
       </c>
       <c r="S17">
-        <v>0.03608545551494365</v>
+        <v>0.02381846998720125</v>
       </c>
       <c r="T17">
-        <v>0.03608545551494365</v>
+        <v>0.02959635321269621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.29882873008398</v>
+        <v>0.2207873333333333</v>
       </c>
       <c r="H18">
-        <v>0.29882873008398</v>
+        <v>0.662362</v>
       </c>
       <c r="I18">
-        <v>0.12711935349314</v>
+        <v>0.08423918866800904</v>
       </c>
       <c r="J18">
-        <v>0.12711935349314</v>
+        <v>0.1024767882328114</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>1.481813262858362</v>
+        <v>1.380741131872445</v>
       </c>
       <c r="R18">
-        <v>1.481813262858362</v>
+        <v>12.426670186852</v>
       </c>
       <c r="S18">
-        <v>0.001280652821294837</v>
+        <v>0.001037246086262877</v>
       </c>
       <c r="T18">
-        <v>0.001280652821294837</v>
+        <v>0.001288861188565793</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.29882873008398</v>
+        <v>0.2207873333333333</v>
       </c>
       <c r="H19">
-        <v>0.29882873008398</v>
+        <v>0.662362</v>
       </c>
       <c r="I19">
-        <v>0.12711935349314</v>
+        <v>0.08423918866800904</v>
       </c>
       <c r="J19">
-        <v>0.12711935349314</v>
+        <v>0.1024767882328114</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>8.953098756666709</v>
+        <v>6.615522514156333</v>
       </c>
       <c r="R19">
-        <v>8.953098756666709</v>
+        <v>39.693135084938</v>
       </c>
       <c r="S19">
-        <v>0.007737689673487876</v>
+        <v>0.004969740292365332</v>
       </c>
       <c r="T19">
-        <v>0.007737689673487876</v>
+        <v>0.004116866424732532</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.45761614701848</v>
+        <v>0.3068913333333333</v>
       </c>
       <c r="H20">
-        <v>0.45761614701848</v>
+        <v>0.920674</v>
       </c>
       <c r="I20">
-        <v>0.1946662516039299</v>
+        <v>0.117091304736278</v>
       </c>
       <c r="J20">
-        <v>0.1946662516039299</v>
+        <v>0.1424413153675111</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>0.8371153453169026</v>
+        <v>0.6196277190013333</v>
       </c>
       <c r="R20">
-        <v>0.8371153453169026</v>
+        <v>3.717766314008</v>
       </c>
       <c r="S20">
-        <v>0.0007234745130174778</v>
+        <v>0.0004654793079152659</v>
       </c>
       <c r="T20">
-        <v>0.0007234745130174778</v>
+        <v>0.0003855968363393151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.45761614701848</v>
+        <v>0.3068913333333333</v>
       </c>
       <c r="H21">
-        <v>0.45761614701848</v>
+        <v>0.920674</v>
       </c>
       <c r="I21">
-        <v>0.1946662516039299</v>
+        <v>0.117091304736278</v>
       </c>
       <c r="J21">
-        <v>0.1946662516039299</v>
+        <v>0.1424413153675111</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>60.18181832571963</v>
+        <v>42.87112854658888</v>
       </c>
       <c r="R21">
-        <v>60.18181832571963</v>
+        <v>385.8401569192999</v>
       </c>
       <c r="S21">
-        <v>0.05201196220960877</v>
+        <v>0.03220582719826589</v>
       </c>
       <c r="T21">
-        <v>0.05201196220960877</v>
+        <v>0.0400183151050055</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.45761614701848</v>
+        <v>0.3068913333333333</v>
       </c>
       <c r="H22">
-        <v>0.45761614701848</v>
+        <v>0.920674</v>
       </c>
       <c r="I22">
-        <v>0.1946662516039299</v>
+        <v>0.117091304736278</v>
       </c>
       <c r="J22">
-        <v>0.1946662516039299</v>
+        <v>0.1424413153675111</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>84.30504806715827</v>
+        <v>57.19068951490156</v>
       </c>
       <c r="R22">
-        <v>84.30504806715827</v>
+        <v>514.716205634114</v>
       </c>
       <c r="S22">
-        <v>0.0728603936560412</v>
+        <v>0.04296302724722997</v>
       </c>
       <c r="T22">
-        <v>0.0728603936560412</v>
+        <v>0.0533849961890487</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.45761614701848</v>
+        <v>0.3068913333333333</v>
       </c>
       <c r="H23">
-        <v>0.45761614701848</v>
+        <v>0.920674</v>
       </c>
       <c r="I23">
-        <v>0.1946662516039299</v>
+        <v>0.117091304736278</v>
       </c>
       <c r="J23">
-        <v>0.1946662516039299</v>
+        <v>0.1424413153675111</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>63.94009096638553</v>
+        <v>44.07119109700578</v>
       </c>
       <c r="R23">
-        <v>63.94009096638553</v>
+        <v>396.640719873052</v>
       </c>
       <c r="S23">
-        <v>0.05526003845585576</v>
+        <v>0.03310734317034571</v>
       </c>
       <c r="T23">
-        <v>0.05526003845585576</v>
+        <v>0.04113852077526469</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.45761614701848</v>
+        <v>0.3068913333333333</v>
       </c>
       <c r="H24">
-        <v>0.45761614701848</v>
+        <v>0.920674</v>
       </c>
       <c r="I24">
-        <v>0.1946662516039299</v>
+        <v>0.117091304736278</v>
       </c>
       <c r="J24">
-        <v>0.1946662516039299</v>
+        <v>0.1424413153675111</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>2.269198399228744</v>
+        <v>1.919211036933778</v>
       </c>
       <c r="R24">
-        <v>2.269198399228744</v>
+        <v>17.272899332404</v>
       </c>
       <c r="S24">
-        <v>0.001961148145242234</v>
+        <v>0.00144175768420288</v>
       </c>
       <c r="T24">
-        <v>0.001961148145242234</v>
+        <v>0.001791499189146755</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.45761614701848</v>
+        <v>0.3068913333333333</v>
       </c>
       <c r="H25">
-        <v>0.45761614701848</v>
+        <v>0.920674</v>
       </c>
       <c r="I25">
-        <v>0.1946662516039299</v>
+        <v>0.117091304736278</v>
       </c>
       <c r="J25">
-        <v>0.1946662516039299</v>
+        <v>0.1424413153675111</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>13.71047072933837</v>
+        <v>9.195484606904333</v>
       </c>
       <c r="R25">
-        <v>13.71047072933837</v>
+        <v>55.172907641426</v>
       </c>
       <c r="S25">
-        <v>0.0118492346241645</v>
+        <v>0.006907870128318291</v>
       </c>
       <c r="T25">
-        <v>0.0118492346241645</v>
+        <v>0.005722387272706163</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.372412603078897</v>
+        <v>0.4946656666666667</v>
       </c>
       <c r="H26">
-        <v>0.372412603078897</v>
+        <v>1.483997</v>
       </c>
       <c r="I26">
-        <v>0.1584213449716918</v>
+        <v>0.1887347149530912</v>
       </c>
       <c r="J26">
-        <v>0.1584213449716918</v>
+        <v>0.2295953667437556</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>0.6812528510148219</v>
+        <v>0.9987527356206666</v>
       </c>
       <c r="R26">
-        <v>0.6812528510148219</v>
+        <v>5.992516413724</v>
       </c>
       <c r="S26">
-        <v>0.000588770803673577</v>
+        <v>0.0007502871771205995</v>
       </c>
       <c r="T26">
-        <v>0.000588770803673577</v>
+        <v>0.0006215278679934858</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.372412603078897</v>
+        <v>0.4946656666666667</v>
       </c>
       <c r="H27">
-        <v>0.372412603078897</v>
+        <v>1.483997</v>
       </c>
       <c r="I27">
-        <v>0.1584213449716918</v>
+        <v>0.1887347149530912</v>
       </c>
       <c r="J27">
-        <v>0.1584213449716918</v>
+        <v>0.2295953667437556</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>48.97656642303189</v>
+        <v>69.10222961629444</v>
       </c>
       <c r="R27">
-        <v>48.97656642303189</v>
+        <v>621.9200665466499</v>
       </c>
       <c r="S27">
-        <v>0.04232785570160268</v>
+        <v>0.0519112638618501</v>
       </c>
       <c r="T27">
-        <v>0.04232785570160268</v>
+        <v>0.06450389558180511</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.372412603078897</v>
+        <v>0.4946656666666667</v>
       </c>
       <c r="H28">
-        <v>0.372412603078897</v>
+        <v>1.483997</v>
       </c>
       <c r="I28">
-        <v>0.1584213449716918</v>
+        <v>0.1887347149530912</v>
       </c>
       <c r="J28">
-        <v>0.1584213449716918</v>
+        <v>0.2295953667437556</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>68.60829236017771</v>
+        <v>92.18334792559078</v>
       </c>
       <c r="R28">
-        <v>68.60829236017771</v>
+        <v>829.6501313303171</v>
       </c>
       <c r="S28">
-        <v>0.05929451799196171</v>
+        <v>0.06925035739665454</v>
       </c>
       <c r="T28">
-        <v>0.05929451799196171</v>
+        <v>0.08604910553524886</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.372412603078897</v>
+        <v>0.4946656666666667</v>
       </c>
       <c r="H29">
-        <v>0.372412603078897</v>
+        <v>1.483997</v>
       </c>
       <c r="I29">
-        <v>0.1584213449716918</v>
+        <v>0.1887347149530912</v>
       </c>
       <c r="J29">
-        <v>0.1584213449716918</v>
+        <v>0.2295953667437556</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>52.03508633389961</v>
+        <v>71.03656166502289</v>
       </c>
       <c r="R29">
-        <v>52.03508633389961</v>
+        <v>639.3290549852061</v>
       </c>
       <c r="S29">
-        <v>0.04497117267751071</v>
+        <v>0.05336438081531956</v>
       </c>
       <c r="T29">
-        <v>0.04497117267751071</v>
+        <v>0.06630950957117338</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.372412603078897</v>
+        <v>0.4946656666666667</v>
       </c>
       <c r="H30">
-        <v>0.372412603078897</v>
+        <v>1.483997</v>
       </c>
       <c r="I30">
-        <v>0.1584213449716918</v>
+        <v>0.1887347149530912</v>
       </c>
       <c r="J30">
-        <v>0.1584213449716918</v>
+        <v>0.2295953667437556</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>1.846696381378159</v>
+        <v>3.09349826450689</v>
       </c>
       <c r="R30">
-        <v>1.846696381378159</v>
+        <v>27.841484380562</v>
       </c>
       <c r="S30">
-        <v>0.001596001999823483</v>
+        <v>0.002323910611230491</v>
       </c>
       <c r="T30">
-        <v>0.001596001999823483</v>
+        <v>0.002887644727880028</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4946656666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.483997</v>
+      </c>
+      <c r="I31">
+        <v>0.1887347149530912</v>
+      </c>
+      <c r="J31">
+        <v>0.2295953667437556</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.9633245</v>
+      </c>
+      <c r="N31">
+        <v>59.926649</v>
+      </c>
+      <c r="O31">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P31">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q31">
+        <v>14.82182788934217</v>
+      </c>
+      <c r="R31">
+        <v>88.930967336053</v>
+      </c>
+      <c r="S31">
+        <v>0.01113451509091596</v>
+      </c>
+      <c r="T31">
+        <v>0.009223683459654696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.372846</v>
+      </c>
+      <c r="H32">
+        <v>0.745692</v>
+      </c>
+      <c r="I32">
+        <v>0.1422556451220594</v>
+      </c>
+      <c r="J32">
+        <v>0.1153691201652595</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.019046</v>
+      </c>
+      <c r="N32">
+        <v>4.038092</v>
+      </c>
+      <c r="O32">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P32">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q32">
+        <v>0.752793224916</v>
+      </c>
+      <c r="R32">
+        <v>3.011172899664</v>
+      </c>
+      <c r="S32">
+        <v>0.0005655164522044998</v>
+      </c>
+      <c r="T32">
+        <v>0.0003123108462751599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.372846</v>
+      </c>
+      <c r="H33">
+        <v>0.745692</v>
+      </c>
+      <c r="I33">
+        <v>0.1422556451220594</v>
+      </c>
+      <c r="J33">
+        <v>0.1153691201652595</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N33">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P33">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q33">
+        <v>52.08465361489999</v>
+      </c>
+      <c r="R33">
+        <v>312.5079216894</v>
+      </c>
+      <c r="S33">
+        <v>0.03912724975691061</v>
+      </c>
+      <c r="T33">
+        <v>0.03241249066149555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.372846</v>
+      </c>
+      <c r="H34">
+        <v>0.745692</v>
+      </c>
+      <c r="I34">
+        <v>0.1422556451220594</v>
+      </c>
+      <c r="J34">
+        <v>0.1153691201652595</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N34">
+        <v>559.064561</v>
+      </c>
+      <c r="O34">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P34">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q34">
+        <v>69.48166177020201</v>
+      </c>
+      <c r="R34">
+        <v>416.8899706212121</v>
+      </c>
+      <c r="S34">
+        <v>0.05219630246000442</v>
+      </c>
+      <c r="T34">
+        <v>0.04323871921896796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.372846</v>
+      </c>
+      <c r="H35">
+        <v>0.745692</v>
+      </c>
+      <c r="I35">
+        <v>0.1422556451220594</v>
+      </c>
+      <c r="J35">
+        <v>0.1153691201652595</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N35">
+        <v>430.815598</v>
+      </c>
+      <c r="O35">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P35">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q35">
+        <v>53.542624150636</v>
+      </c>
+      <c r="R35">
+        <v>321.255744903816</v>
+      </c>
+      <c r="S35">
+        <v>0.04022251243661941</v>
+      </c>
+      <c r="T35">
+        <v>0.03331979162434117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.372412603078897</v>
-      </c>
-      <c r="H31">
-        <v>0.372412603078897</v>
-      </c>
-      <c r="I31">
-        <v>0.1584213449716918</v>
-      </c>
-      <c r="J31">
-        <v>0.1584213449716918</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="N31">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="O31">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="P31">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="Q31">
-        <v>11.15771837820166</v>
-      </c>
-      <c r="R31">
-        <v>11.15771837820166</v>
-      </c>
-      <c r="S31">
-        <v>0.009643025797119637</v>
-      </c>
-      <c r="T31">
-        <v>0.009643025797119637</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.372846</v>
+      </c>
+      <c r="H36">
+        <v>0.745692</v>
+      </c>
+      <c r="I36">
+        <v>0.1422556451220594</v>
+      </c>
+      <c r="J36">
+        <v>0.1153691201652595</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N36">
+        <v>18.761146</v>
+      </c>
+      <c r="O36">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P36">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q36">
+        <v>2.331672747172</v>
+      </c>
+      <c r="R36">
+        <v>13.990036483032</v>
+      </c>
+      <c r="S36">
+        <v>0.001751608882810767</v>
+      </c>
+      <c r="T36">
+        <v>0.001451009383726728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.372846</v>
+      </c>
+      <c r="H37">
+        <v>0.745692</v>
+      </c>
+      <c r="I37">
+        <v>0.1422556451220594</v>
+      </c>
+      <c r="J37">
+        <v>0.1153691201652595</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>29.9633245</v>
+      </c>
+      <c r="N37">
+        <v>59.926649</v>
+      </c>
+      <c r="O37">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P37">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q37">
+        <v>11.171705686527</v>
+      </c>
+      <c r="R37">
+        <v>44.686822746108</v>
+      </c>
+      <c r="S37">
+        <v>0.008392455133509672</v>
+      </c>
+      <c r="T37">
+        <v>0.004634798430452912</v>
       </c>
     </row>
   </sheetData>
